--- a/data/emdat/emdat_drought_events.xlsx
+++ b/data/emdat/emdat_drought_events.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ316"/>
+  <dimension ref="A1:AZ315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31213,17 +31213,17 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2014-9580-CRI</t>
+          <t>2015-9575-GMB</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>9580</t>
+          <t>9575</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -31248,27 +31248,32 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Gambia (the)</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>GMB</t>
         </is>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>Central America</t>
+          <t>Western Africa</t>
         </is>
       </c>
       <c r="N298" t="inlineStr">
         <is>
-          <t>Americas</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>Alajuela, Cartago, Guanacaste, Heredia, Limon, Puntarenas, San Jose provinces</t>
+          <t>NO DATA: all country selected: Central River, North Bank (mainly?), Kanifing Municipal Council, Lower River, Upper River, West Coast provinces</t>
+        </is>
+      </c>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>Food shortage</t>
         </is>
       </c>
       <c r="X298" t="inlineStr">
@@ -31280,16 +31285,22 @@
         <v>2015</v>
       </c>
       <c r="AD298">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AF298">
         <v>2015</v>
       </c>
       <c r="AG298">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="AK298">
+        <v>63100</v>
+      </c>
+      <c r="AM298">
+        <v>63100</v>
       </c>
       <c r="AT298">
-        <v>80.8926237222027</v>
+        <v>80.9885789905908</v>
       </c>
       <c r="AU298" t="inlineStr">
         <is>
@@ -31298,20 +31309,20 @@
       </c>
       <c r="AX298" t="inlineStr">
         <is>
-          <t>Alajuela, Cartago, Guanacaste, Heredia, Limon, Puntarenas, San Jose (Adm1).</t>
+          <t>Central River, Kanifing Municipal Council, Lower River, North Bank, Upper River, West Coast (Adm1).</t>
         </is>
       </c>
       <c r="AY298">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="AZ298">
-        <v>2014</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2015-9575-GMB</t>
+          <t>2015-9372-CUB</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -31321,7 +31332,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>9575</t>
+          <t>9372</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -31346,32 +31357,32 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>Gambia (the)</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>Western Africa</t>
+          <t>Caribbean</t>
         </is>
       </c>
       <c r="N299" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Americas</t>
         </is>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>NO DATA: all country selected: Central River, North Bank (mainly?), Kanifing Municipal Council, Lower River, Upper River, West Coast provinces</t>
-        </is>
-      </c>
-      <c r="Q299" t="inlineStr">
-        <is>
-          <t>Food shortage</t>
+          <t>Camaguey, Ciego De Avila, Cienfuegos, Ciudad De La Habana, Granma, Guantanamo, Holguin, Isla De La Juventud, La Habana, Las Tunas, Matanzas, Pinar Del Rio, Sancti Spiritus, Santiago De Cuba, Villa Clara provinces</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>El Nino; long uninterrupted drought combined with heavy unseasonable rains</t>
         </is>
       </c>
       <c r="X299" t="inlineStr">
@@ -31383,19 +31394,19 @@
         <v>2015</v>
       </c>
       <c r="AD299">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF299">
         <v>2015</v>
       </c>
       <c r="AG299">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AK299">
-        <v>63100</v>
+        <v>100000</v>
       </c>
       <c r="AM299">
-        <v>63100</v>
+        <v>100000</v>
       </c>
       <c r="AT299">
         <v>80.9885789905908</v>
@@ -31407,30 +31418,30 @@
       </c>
       <c r="AX299" t="inlineStr">
         <is>
-          <t>Central River, Kanifing Municipal Council, Lower River, North Bank, Upper River, West Coast (Adm1).</t>
+          <t>Camaguey, Ciego De Avila, Cienfuegos, Ciudad De La Habana, Granma, Guantanamo, Holguin, Isla De La Juventud, La Habana, Las Tunas, Matanzas, Pinar Del Rio, Sancti Spiritus, Santiago De Cuba, Villa Clara (Adm1).</t>
         </is>
       </c>
       <c r="AY299">
-        <v>1972</v>
+        <v>1980</v>
       </c>
       <c r="AZ299">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2015-9372-CUB</t>
+          <t>2014-9573-SEN</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>9372</t>
+          <t>9573</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -31455,32 +31466,42 @@
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>SEN</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>Caribbean</t>
+          <t>Western Africa</t>
         </is>
       </c>
       <c r="N300" t="inlineStr">
         <is>
-          <t>Americas</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>Camaguey, Ciego De Avila, Cienfuegos, Ciudad De La Habana, Granma, Guantanamo, Holguin, Isla De La Juventud, La Habana, Las Tunas, Matanzas, Pinar Del Rio, Sancti Spiritus, Santiago De Cuba, Villa Clara provinces</t>
+          <t>Kanel district (Matam province), Podor district (Saint Louis province), Fatick district (Fatick province), Goudomp district (Sedhiou province)</t>
         </is>
       </c>
       <c r="P300" t="inlineStr">
         <is>
-          <t>El Nino; long uninterrupted drought combined with heavy unseasonable rains</t>
+          <t>Rainfall deficit</t>
+        </is>
+      </c>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>Food shortage</t>
+        </is>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
       <c r="X300" t="inlineStr">
@@ -31489,38 +31510,43 @@
         </is>
       </c>
       <c r="AC300">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="AD300">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AF300">
         <v>2015</v>
       </c>
       <c r="AG300">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK300">
-        <v>100000</v>
+        <v>639702</v>
       </c>
       <c r="AM300">
-        <v>100000</v>
+        <v>639702</v>
       </c>
       <c r="AT300">
-        <v>80.9885789905908</v>
+        <v>80.8926237222027</v>
       </c>
       <c r="AU300" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AW300" t="inlineStr">
+        <is>
+          <t>1394;25325;47593;47598</t>
         </is>
       </c>
       <c r="AX300" t="inlineStr">
         <is>
-          <t>Camaguey, Ciego De Avila, Cienfuegos, Ciudad De La Habana, Granma, Guantanamo, Holguin, Isla De La Juventud, La Habana, Las Tunas, Matanzas, Pinar Del Rio, Sancti Spiritus, Santiago De Cuba, Villa Clara (Adm1).</t>
+          <t>Fatick, Goudomp, Kanel, Podor (Adm2).</t>
         </is>
       </c>
       <c r="AY300">
-        <v>1980</v>
+        <v>1959</v>
       </c>
       <c r="AZ300">
         <v>2015</v>
@@ -31529,7 +31555,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2014-9573-SEN</t>
+          <t>2014-9533-MDG</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -31539,7 +31565,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>9573</t>
+          <t>9533</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -31564,17 +31590,17 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Western Africa</t>
+          <t>Eastern Africa</t>
         </is>
       </c>
       <c r="N301" t="inlineStr">
@@ -31584,22 +31610,12 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>Kanel district (Matam province), Podor district (Saint Louis province), Fatick district (Fatick province), Goudomp district (Sedhiou province)</t>
-        </is>
-      </c>
-      <c r="P301" t="inlineStr">
-        <is>
-          <t>Rainfall deficit</t>
+          <t>Androy, Anosy provinces; Atsimo Andrefana, Menabe provinces (South-West regions)</t>
         </is>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
-          <t>Food shortage</t>
-        </is>
-      </c>
-      <c r="S301" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Famine</t>
         </is>
       </c>
       <c r="X301" t="inlineStr">
@@ -31611,49 +31627,44 @@
         <v>2014</v>
       </c>
       <c r="AD301">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF301">
         <v>2015</v>
       </c>
       <c r="AG301">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK301">
-        <v>639702</v>
+        <v>20000</v>
       </c>
       <c r="AM301">
-        <v>639702</v>
+        <v>20000</v>
       </c>
       <c r="AT301">
         <v>80.8926237222027</v>
       </c>
       <c r="AU301" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AW301" t="inlineStr">
-        <is>
-          <t>1394;25325;47593;47598</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AX301" t="inlineStr">
         <is>
-          <t>Fatick, Goudomp, Kanel, Podor (Adm2).</t>
+          <t>Androy, Anosy, Atsimo Andrefana, Menabe (Adm1).</t>
         </is>
       </c>
       <c r="AY301">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="AZ301">
-        <v>2015</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2014-9533-MDG</t>
+          <t>2014-9404-KEN</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -31663,7 +31674,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>9533</t>
+          <t>9404</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -31688,12 +31699,12 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
@@ -31708,12 +31719,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>Androy, Anosy provinces; Atsimo Andrefana, Menabe provinces (South-West regions)</t>
-        </is>
-      </c>
-      <c r="Q302" t="inlineStr">
-        <is>
-          <t>Famine</t>
+          <t>Mandera, Wajir districts (North Eastern province) Turkana, Baringo, Samburu districts (Rift Valley province), Marsabit district (Eastern province)</t>
         </is>
       </c>
       <c r="X302" t="inlineStr">
@@ -31725,44 +31731,49 @@
         <v>2014</v>
       </c>
       <c r="AD302">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AF302">
         <v>2015</v>
       </c>
       <c r="AG302">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AK302">
-        <v>20000</v>
+        <v>1600000</v>
       </c>
       <c r="AM302">
-        <v>20000</v>
+        <v>1600000</v>
       </c>
       <c r="AT302">
         <v>80.8926237222027</v>
       </c>
       <c r="AU302" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AW302" t="inlineStr">
+        <is>
+          <t>51352;51363;51364;51377;51389;51392</t>
         </is>
       </c>
       <c r="AX302" t="inlineStr">
         <is>
-          <t>Androy, Anosy, Atsimo Andrefana, Menabe (Adm1).</t>
+          <t>Baringo, Mandera, Marsabit, Samburu, Turkana, Wajir (Adm2).</t>
         </is>
       </c>
       <c r="AY302">
-        <v>1958</v>
+        <v>1969</v>
       </c>
       <c r="AZ302">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2014-9404-KEN</t>
+          <t>2014-9428-THA</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -31772,7 +31783,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>9404</t>
+          <t>9428</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -31797,27 +31808,37 @@
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Eastern Africa</t>
+          <t>South-Eastern Asia</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>Mandera, Wajir districts (North Eastern province) Turkana, Baringo, Samburu districts (Rift Valley province), Marsabit district (Eastern province)</t>
+          <t>Ang Thong, Bangkok, Buriram, Chachoengsao, Chainat, Chaiyaphum, Chanthaburi, Chiang Mai, Chiang Rai, Chonburi, Chumphon, Kalasin, Kampaeng Phet, Kanchanaburi, Khon Kaen, Krabi, Lampang, Lamphun, Loei, Lopburi, Mae Hong Son, Maha Sarakham, Mukdahan, Nakhon Nayok, Nakhon Pathom, Nakhon Phanom, Nakhon Ratchasima, Nakhon Sawan, Nakhon Si Thammarat, Nan Narathiwat, Nong Khai, Nonthaburi, Pathum Thani, Pattani, Phangnga, Phatthalung, Phayao, Phetchabun, Phetchaburi, Phichit, Phitsanulok, Phra Nakhon Si Ayudhya, Phrae, Phuket, Prachuap Khilikhan, Ranong, Ratchaburi, Rayong, Roi Et, Sakon Nakhon, Samut Prakarn, Samut Sakhon, Samut Songkham, Saraburi, Satun, Si Saket, Singburi, Songkhla, Sukhothai, Suphanburi, Surat Thani, Surin, Tak, Trad, Trang, Uthai Thani, Uttaradit, Yala, Yasothon, Amnat Charoen, Nong Bua Lamphu, Phachinburi, Sa Kaeo, Ubon Ratchathani, Udon Thani provinces</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>Dry conditions</t>
+        </is>
+      </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
       <c r="X303" t="inlineStr">
@@ -31829,40 +31850,29 @@
         <v>2014</v>
       </c>
       <c r="AD303">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF303">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="AG303">
-        <v>5</v>
-      </c>
-      <c r="AK303">
-        <v>1600000</v>
-      </c>
-      <c r="AM303">
-        <v>1600000</v>
+        <v>3</v>
       </c>
       <c r="AT303">
         <v>80.8926237222027</v>
       </c>
       <c r="AU303" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AW303" t="inlineStr">
-        <is>
-          <t>51352;51363;51364;51377;51389;51392</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AX303" t="inlineStr">
         <is>
-          <t>Baringo, Mandera, Marsabit, Samburu, Turkana, Wajir (Adm2).</t>
+          <t>Amnat Charoen, Ang Thong, Bangkok, Buriram, Chachoengsao, Chainat, Chaiyaphum, Chanthaburi, Chiang Mai, Chiang Rai, Chonburi, Chumphon, Kalasin, Kampaeng Phet, Kanchanaburi, Khon Kaen, Krabi, Lampang, Lamphun, Loei, Lopburi, Mae Hong Son, Maha Sarakham, Mukdahan, Nakhon Nayok, Nakhon Pathom, Nakhon Phanom, Nakhon Ratchasima, Nakhon Sawan, Nakhon Si Thammarat, Nan, Narathiwat, Nong Bua Lamphu, Nong Khai, Nonthaburi, Pathum Thani, Pattani, Phachinburi, Phangnga, Phatthalung, Phayao, Phetchabun, Phetchaburi, Phichit, Phitsanulok, Phra Nakhon Si Ayudhya, Phrae, Phuket, Prachuap Khilikhan, Ranong, Ratchaburi, Rayong, Roi Et, Sa Kaeo, Sakon Nakhon, Samut Prakarn, Samut Sakhon, Samut Songkham, Saraburi, Satun, Si Saket, Singburi, Songkhla, Sukhothai, Suphanburi, Surat Thani, Surin, Tak, Trad, Trang, Ubon Ratchathani, Uthai Thani, Uttaradit, Yala, Yasothon (Adm1).</t>
         </is>
       </c>
       <c r="AY303">
-        <v>1969</v>
+        <v>1985</v>
       </c>
       <c r="AZ303">
         <v>2018</v>
@@ -31871,17 +31881,17 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2014-9428-THA</t>
+          <t>2015-9444-MWI</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>9428</t>
+          <t>9444</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -31906,32 +31916,42 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>South-Eastern Asia</t>
+          <t>Eastern Africa</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>Ang Thong, Bangkok, Buriram, Chachoengsao, Chainat, Chaiyaphum, Chanthaburi, Chiang Mai, Chiang Rai, Chonburi, Chumphon, Kalasin, Kampaeng Phet, Kanchanaburi, Khon Kaen, Krabi, Lampang, Lamphun, Loei, Lopburi, Mae Hong Son, Maha Sarakham, Mukdahan, Nakhon Nayok, Nakhon Pathom, Nakhon Phanom, Nakhon Ratchasima, Nakhon Sawan, Nakhon Si Thammarat, Nan Narathiwat, Nong Khai, Nonthaburi, Pathum Thani, Pattani, Phangnga, Phatthalung, Phayao, Phetchabun, Phetchaburi, Phichit, Phitsanulok, Phra Nakhon Si Ayudhya, Phrae, Phuket, Prachuap Khilikhan, Ranong, Ratchaburi, Rayong, Roi Et, Sakon Nakhon, Samut Prakarn, Samut Sakhon, Samut Songkham, Saraburi, Satun, Si Saket, Singburi, Songkhla, Sukhothai, Suphanburi, Surat Thani, Surin, Tak, Trad, Trang, Uthai Thani, Uttaradit, Yala, Yasothon, Amnat Charoen, Nong Bua Lamphu, Phachinburi, Sa Kaeo, Ubon Ratchathani, Udon Thani provinces</t>
+          <t>23-25 districts affected (almost all the country): All provinces have been selected</t>
         </is>
       </c>
       <c r="P304" t="inlineStr">
         <is>
-          <t>Dry conditions</t>
+          <t>Late and erratic start to the rainy season, El Nino</t>
+        </is>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>Food shortage</t>
+        </is>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
       <c r="U304" t="inlineStr">
@@ -31945,19 +31965,25 @@
         </is>
       </c>
       <c r="AC304">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="AD304">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AF304">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="AG304">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="AK304">
+        <v>6700000</v>
+      </c>
+      <c r="AM304">
+        <v>6700000</v>
       </c>
       <c r="AT304">
-        <v>80.8926237222027</v>
+        <v>80.9885789905908</v>
       </c>
       <c r="AU304" t="inlineStr">
         <is>
@@ -31966,20 +31992,20 @@
       </c>
       <c r="AX304" t="inlineStr">
         <is>
-          <t>Amnat Charoen, Ang Thong, Bangkok, Buriram, Chachoengsao, Chainat, Chaiyaphum, Chanthaburi, Chiang Mai, Chiang Rai, Chonburi, Chumphon, Kalasin, Kampaeng Phet, Kanchanaburi, Khon Kaen, Krabi, Lampang, Lamphun, Loei, Lopburi, Mae Hong Son, Maha Sarakham, Mukdahan, Nakhon Nayok, Nakhon Pathom, Nakhon Phanom, Nakhon Ratchasima, Nakhon Sawan, Nakhon Si Thammarat, Nan, Narathiwat, Nong Bua Lamphu, Nong Khai, Nonthaburi, Pathum Thani, Pattani, Phachinburi, Phangnga, Phatthalung, Phayao, Phetchabun, Phetchaburi, Phichit, Phitsanulok, Phra Nakhon Si Ayudhya, Phrae, Phuket, Prachuap Khilikhan, Ranong, Ratchaburi, Rayong, Roi Et, Sa Kaeo, Sakon Nakhon, Samut Prakarn, Samut Sakhon, Samut Songkham, Saraburi, Satun, Si Saket, Singburi, Songkhla, Sukhothai, Suphanburi, Surat Thani, Surin, Tak, Trad, Trang, Ubon Ratchathani, Uthai Thani, Uttaradit, Yala, Yasothon (Adm1).</t>
+          <t>Area under National Administration, Central Region, Northern Region, Southern Region (Adm1).</t>
         </is>
       </c>
       <c r="AY304">
-        <v>1985</v>
+        <v>1966</v>
       </c>
       <c r="AZ304">
-        <v>2018</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2015-9444-MWI</t>
+          <t>2015-9618-IND</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -31989,7 +32015,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>9444</t>
+          <t>9618</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -32014,47 +32040,32 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>India</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Eastern Africa</t>
+          <t>Southern Asia</t>
         </is>
       </c>
       <c r="N305" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>23-25 districts affected (almost all the country): All provinces have been selected</t>
+          <t>Tamil Nadu, Rajasthan, Jharkhand, Assam, Andhra Pradesh, Himachal Pradesh, Nagaland; Maharashtra, Bihar, Madhya Pradesh, Chhattisgarh, Telangana, Jharkand, Odisha states</t>
         </is>
       </c>
       <c r="P305" t="inlineStr">
         <is>
-          <t>Late and erratic start to the rainy season, El Nino</t>
-        </is>
-      </c>
-      <c r="Q305" t="inlineStr">
-        <is>
-          <t>Food shortage</t>
-        </is>
-      </c>
-      <c r="S305" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="U305" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>Erratic rainfall</t>
         </is>
       </c>
       <c r="X305" t="inlineStr">
@@ -32066,19 +32077,31 @@
         <v>2015</v>
       </c>
       <c r="AD305">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AF305">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="AG305">
         <v>12</v>
       </c>
       <c r="AK305">
-        <v>6700000</v>
+        <v>330000000</v>
       </c>
       <c r="AM305">
-        <v>6700000</v>
+        <v>330000000</v>
+      </c>
+      <c r="AP305" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ305" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR305">
+        <v>3000000</v>
+      </c>
+      <c r="AS305">
+        <v>3704226</v>
       </c>
       <c r="AT305">
         <v>80.9885789905908</v>
@@ -32090,20 +32113,20 @@
       </c>
       <c r="AX305" t="inlineStr">
         <is>
-          <t>Area under National Administration, Central Region, Northern Region, Southern Region (Adm1).</t>
+          <t>Andhra Pradesh, Assam, Bihar, Chhattisgarh, Himachal Pradesh, Jharkhand, Madhya Pradesh, Maharashtra, Nagaland, Rajasthan, Tamil Nadu (Adm1).</t>
         </is>
       </c>
       <c r="AY305">
-        <v>1966</v>
+        <v>1981</v>
       </c>
       <c r="AZ305">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2015-9618-IND</t>
+          <t>2015-9364-PHL</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -32113,7 +32136,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>9618</t>
+          <t>9364</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -32138,17 +32161,17 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Philippines (the)</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Southern Asia</t>
+          <t>South-Eastern Asia</t>
         </is>
       </c>
       <c r="N306" t="inlineStr">
@@ -32158,12 +32181,17 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>Tamil Nadu, Rajasthan, Jharkhand, Assam, Andhra Pradesh, Himachal Pradesh, Nagaland; Maharashtra, Bihar, Madhya Pradesh, Chhattisgarh, Telangana, Jharkand, Odisha states</t>
+          <t>Isabela district (Region II (Cagayan Valley), Region XIII (Caraga), Autonomous region in Muslim Mindanao (ARMM), Region IX (Zamboanga Peninsula), Region X (Northern Mindanao), Region XI (Davao Region), Region XII (Soccsksargen) provinces (Mindanao Isl.), Region VI (Western Visayas), Region VII (Central Visayas), Region VIII (Eastern Visayas) provinces (Visayas regions)</t>
         </is>
       </c>
       <c r="P306" t="inlineStr">
         <is>
-          <t>Erratic rainfall</t>
+          <t>El Nino</t>
+        </is>
+      </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
       <c r="X306" t="inlineStr">
@@ -32175,56 +32203,55 @@
         <v>2015</v>
       </c>
       <c r="AD306">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AF306">
         <v>2016</v>
       </c>
       <c r="AG306">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AK306">
-        <v>330000000</v>
+        <v>181687</v>
       </c>
       <c r="AM306">
-        <v>330000000</v>
-      </c>
-      <c r="AP306" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ306" t="b">
-        <v>1</v>
+        <v>181687</v>
       </c>
       <c r="AR306">
-        <v>3000000</v>
+        <v>84399</v>
       </c>
       <c r="AS306">
-        <v>3704226</v>
+        <v>104211</v>
       </c>
       <c r="AT306">
         <v>80.9885789905908</v>
       </c>
       <c r="AU306" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1;2</t>
+        </is>
+      </c>
+      <c r="AW306" t="inlineStr">
+        <is>
+          <t>24217</t>
         </is>
       </c>
       <c r="AX306" t="inlineStr">
         <is>
-          <t>Andhra Pradesh, Assam, Bihar, Chhattisgarh, Himachal Pradesh, Jharkhand, Madhya Pradesh, Maharashtra, Nagaland, Rajasthan, Tamil Nadu (Adm1).</t>
+          <t>Autonomous region in Muslim Mindanao (ARMM), Region IX (Zamboanga Peninsula), Region VI (Western Visayas), Region VII (Central Visayas), Region VIII (Eastern Visayas), Region X (Northern Mindanao), Region XI (Davao Region), Region XII (Soccsksargen), Region XIII (Caraga) (Adm1). Isabela (Adm2).</t>
         </is>
       </c>
       <c r="AY306">
-        <v>1981</v>
+        <v>1964</v>
       </c>
       <c r="AZ306">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2015-9364-PHL</t>
+          <t>2015-9574-THA</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -32234,7 +32261,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>9364</t>
+          <t>9574</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -32259,12 +32286,12 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>Philippines (the)</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="M307" t="inlineStr">
@@ -32279,17 +32306,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>Isabela district (Region II (Cagayan Valley), Region XIII (Caraga), Autonomous region in Muslim Mindanao (ARMM), Region IX (Zamboanga Peninsula), Region X (Northern Mindanao), Region XI (Davao Region), Region XII (Soccsksargen) provinces (Mindanao Isl.), Region VI (Western Visayas), Region VII (Central Visayas), Region VIII (Eastern Visayas) provinces (Visayas regions)</t>
-        </is>
-      </c>
-      <c r="P307" t="inlineStr">
-        <is>
-          <t>El Nino</t>
-        </is>
-      </c>
-      <c r="U307" t="inlineStr">
-        <is>
-          <t>Yes</t>
+          <t>42 provinces. 28 provinces in the North and Northeast</t>
         </is>
       </c>
       <c r="X307" t="inlineStr">
@@ -32301,46 +32318,35 @@
         <v>2015</v>
       </c>
       <c r="AD307">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AF307">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="AG307">
-        <v>4</v>
-      </c>
-      <c r="AK307">
-        <v>181687</v>
-      </c>
-      <c r="AM307">
-        <v>181687</v>
+        <v>5</v>
       </c>
       <c r="AR307">
-        <v>84399</v>
+        <v>3300000</v>
       </c>
       <c r="AS307">
-        <v>104211</v>
+        <v>4074649</v>
       </c>
       <c r="AT307">
         <v>80.9885789905908</v>
       </c>
       <c r="AU307" t="inlineStr">
         <is>
-          <t>1;2</t>
-        </is>
-      </c>
-      <c r="AW307" t="inlineStr">
-        <is>
-          <t>24217</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AX307" t="inlineStr">
         <is>
-          <t>Autonomous region in Muslim Mindanao (ARMM), Region IX (Zamboanga Peninsula), Region VI (Western Visayas), Region VII (Central Visayas), Region VIII (Eastern Visayas), Region X (Northern Mindanao), Region XI (Davao Region), Region XII (Soccsksargen), Region XIII (Caraga) (Adm1). Isabela (Adm2).</t>
+          <t>Amnat Charoen, Ang Thong, Bangkok, Buriram, Chachoengsao, Chainat, Chaiyaphum, Chanthaburi, Chiang Mai, Chiang Rai, Chonburi, Chumphon, Kalasin, Kampaeng Phet, Kanchanaburi, Khon Kaen, Krabi, Lampang, Lamphun, Loei, Lopburi, Mae Hong Son, Maha Sarakham, Mukdahan, Nakhon Nayok, Nakhon Pathom, Nakhon Phanom, Nakhon Ratchasima, Nakhon Sawan, Nakhon Si Thammarat, Nan, Narathiwat, Nong Khai, Nonthaburi, Pathum Thani, Pattani, Phachinburi, Phangnga, Phatthalung, Phayao, Phetchabun, Phetchaburi, Phichit, Phitsanulok, Phra Nakhon Si Ayudhya, Phrae, Phuket, Prachuap Khilikhan, Ranong, Ratchaburi, Rayong, Roi Et, Sa Kaeo, Sakon Nakhon, Samut Prakarn, Samut Sakhon, Samut Songkham, Saraburi, Satun, Si Saket, Singburi, Songkhla, Sukhothai, Suphanburi, Surat Thani, Surin, Tak, Trad, Trang, Ubon Ratchathani, Udon Thani, Uthai Thani, Uttaradit, Yala, Yasothon (Adm1).</t>
         </is>
       </c>
       <c r="AY307">
-        <v>1964</v>
+        <v>1985</v>
       </c>
       <c r="AZ307">
         <v>2018</v>
@@ -32349,17 +32355,17 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2015-9574-THA</t>
+          <t>2016-9225-KHM</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>9574</t>
+          <t>9225</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -32384,12 +32390,12 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
@@ -32404,7 +32410,12 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>42 provinces. 28 provinces in the North and Northeast</t>
+          <t>Banteay Meanchey, Battambang, Pursat, Kampong Speu provinces</t>
+        </is>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>Water shortage</t>
         </is>
       </c>
       <c r="X308" t="inlineStr">
@@ -32413,25 +32424,25 @@
         </is>
       </c>
       <c r="AC308">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="AD308">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF308">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="AG308">
         <v>5</v>
       </c>
-      <c r="AR308">
-        <v>3300000</v>
-      </c>
-      <c r="AS308">
-        <v>4074649</v>
+      <c r="AK308">
+        <v>2500000</v>
+      </c>
+      <c r="AM308">
+        <v>2500000</v>
       </c>
       <c r="AT308">
-        <v>80.9885789905908</v>
+        <v>82.01033090313599</v>
       </c>
       <c r="AU308" t="inlineStr">
         <is>
@@ -32440,11 +32451,11 @@
       </c>
       <c r="AX308" t="inlineStr">
         <is>
-          <t>Amnat Charoen, Ang Thong, Bangkok, Buriram, Chachoengsao, Chainat, Chaiyaphum, Chanthaburi, Chiang Mai, Chiang Rai, Chonburi, Chumphon, Kalasin, Kampaeng Phet, Kanchanaburi, Khon Kaen, Krabi, Lampang, Lamphun, Loei, Lopburi, Mae Hong Son, Maha Sarakham, Mukdahan, Nakhon Nayok, Nakhon Pathom, Nakhon Phanom, Nakhon Ratchasima, Nakhon Sawan, Nakhon Si Thammarat, Nan, Narathiwat, Nong Khai, Nonthaburi, Pathum Thani, Pattani, Phachinburi, Phangnga, Phatthalung, Phayao, Phetchabun, Phetchaburi, Phichit, Phitsanulok, Phra Nakhon Si Ayudhya, Phrae, Phuket, Prachuap Khilikhan, Ranong, Ratchaburi, Rayong, Roi Et, Sa Kaeo, Sakon Nakhon, Samut Prakarn, Samut Sakhon, Samut Songkham, Saraburi, Satun, Si Saket, Singburi, Songkhla, Sukhothai, Suphanburi, Surat Thani, Surin, Tak, Trad, Trang, Ubon Ratchathani, Udon Thani, Uthai Thani, Uttaradit, Yala, Yasothon (Adm1).</t>
+          <t>Banteay Meanchey, Battambang, Kampong Speu, Pursat (Adm1).</t>
         </is>
       </c>
       <c r="AY308">
-        <v>1985</v>
+        <v>1966</v>
       </c>
       <c r="AZ308">
         <v>2018</v>
@@ -32453,7 +32464,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2016-9225-KHM</t>
+          <t>2016-9020-MDG</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -32463,7 +32474,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>9225</t>
+          <t>9020</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -32488,32 +32499,47 @@
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>South-Eastern Asia</t>
+          <t>Eastern Africa</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>Banteay Meanchey, Battambang, Pursat, Kampong Speu provinces</t>
+          <t>Ambovombe-Androy, Bekily, Beloha, Tsihombe districts (Androy province), Amboasary-Atsimo, Taolagnaro districts (Anosy province), Ampanihy Ouest, Betioky Atsimo districts (Atsimo Andrefana province)</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>El Nino</t>
         </is>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
-          <t>Water shortage</t>
+          <t>Food shortage</t>
+        </is>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
       <c r="X309" t="inlineStr">
@@ -32525,54 +32551,59 @@
         <v>2016</v>
       </c>
       <c r="AD309">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF309">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="AG309">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AK309">
-        <v>2500000</v>
+        <v>1140000</v>
       </c>
       <c r="AM309">
-        <v>2500000</v>
+        <v>1140000</v>
       </c>
       <c r="AT309">
         <v>82.01033090313599</v>
       </c>
       <c r="AU309" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AW309" t="inlineStr">
+        <is>
+          <t>154531;154532;154533;154534;154535;154537;154538;154542</t>
         </is>
       </c>
       <c r="AX309" t="inlineStr">
         <is>
-          <t>Banteay Meanchey, Battambang, Kampong Speu, Pursat (Adm1).</t>
+          <t>Amboasary-Atsimo, Ambovombe-Androy, Ampanihy Ouest, Bekily, Beloha, Betioky Atsimo, Taolagnaro, Tsihombe (Adm2).</t>
         </is>
       </c>
       <c r="AY309">
-        <v>1966</v>
+        <v>1958</v>
       </c>
       <c r="AZ309">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2016-9020-MDG</t>
+          <t>2013-9478-ZWE</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>9020</t>
+          <t>9478</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -32597,12 +32628,12 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>ZWE</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
@@ -32617,12 +32648,12 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>Ambovombe-Androy, Bekily, Beloha, Tsihombe districts (Androy province), Amboasary-Atsimo, Taolagnaro districts (Anosy province), Ampanihy Ouest, Betioky Atsimo districts (Atsimo Andrefana province)</t>
+          <t>Manicaland, Masvingo, Matabeleland North, Matabeleland South, Mashonaland Central, Midlands provinces</t>
         </is>
       </c>
       <c r="P310" t="inlineStr">
         <is>
-          <t>El Nino</t>
+          <t>Slow onset of rainy season followed by severe flooding and then long dry spell, El Nino</t>
         </is>
       </c>
       <c r="Q310" t="inlineStr">
@@ -32630,6 +32661,11 @@
           <t>Food shortage</t>
         </is>
       </c>
+      <c r="R310" t="inlineStr">
+        <is>
+          <t>Water shortage</t>
+        </is>
+      </c>
       <c r="S310" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -32646,7 +32682,7 @@
         </is>
       </c>
       <c r="AC310">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="AD310">
         <v>1</v>
@@ -32658,50 +32694,51 @@
         <v>1</v>
       </c>
       <c r="AK310">
-        <v>1140000</v>
+        <v>4300000</v>
       </c>
       <c r="AM310">
-        <v>1140000</v>
+        <v>4300000</v>
+      </c>
+      <c r="AR310">
+        <v>500000</v>
+      </c>
+      <c r="AS310">
+        <v>628130</v>
       </c>
       <c r="AT310">
-        <v>82.01033090313599</v>
+        <v>79.6013094233451</v>
       </c>
       <c r="AU310" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AW310" t="inlineStr">
-        <is>
-          <t>154531;154532;154533;154534;154535;154537;154538;154542</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AX310" t="inlineStr">
         <is>
-          <t>Amboasary-Atsimo, Ambovombe-Androy, Ampanihy Ouest, Bekily, Beloha, Betioky Atsimo, Taolagnaro, Tsihombe (Adm2).</t>
+          <t>Manicaland, Mashonaland Central, Mashonaland East, Masvingo, Matabeleland North, Matabeleland South, Midlands (Adm1).</t>
         </is>
       </c>
       <c r="AY310">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="AZ310">
-        <v>2017</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2013-9478-ZWE</t>
+          <t>2015-9483-TON</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>9478</t>
+          <t>9483</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -32726,85 +32763,58 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>Tonga</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>ZWE</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Eastern Africa</t>
+          <t>Polynesia</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
         <is>
-          <t>Africa</t>
+          <t>Oceania</t>
         </is>
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Manicaland, Masvingo, Matabeleland North, Matabeleland South, Mashonaland Central, Midlands provinces</t>
+          <t>Vava'u, Ha'apai, Tongatapu, Niuafo'ou, Niuatoputapu</t>
         </is>
       </c>
       <c r="P311" t="inlineStr">
         <is>
-          <t>Slow onset of rainy season followed by severe flooding and then long dry spell, El Nino</t>
-        </is>
-      </c>
-      <c r="Q311" t="inlineStr">
-        <is>
-          <t>Food shortage</t>
-        </is>
-      </c>
-      <c r="R311" t="inlineStr">
-        <is>
-          <t>Water shortage</t>
-        </is>
-      </c>
-      <c r="S311" t="inlineStr">
+          <t>El NIno</t>
+        </is>
+      </c>
+      <c r="U311" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="U311" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="X311" t="inlineStr">
         <is>
           <t>Km2</t>
         </is>
       </c>
       <c r="AC311">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="AD311">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AF311">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="AG311">
-        <v>1</v>
-      </c>
-      <c r="AK311">
-        <v>4300000</v>
-      </c>
-      <c r="AM311">
-        <v>4300000</v>
-      </c>
-      <c r="AR311">
-        <v>500000</v>
-      </c>
-      <c r="AS311">
-        <v>628130</v>
+        <v>12</v>
       </c>
       <c r="AT311">
-        <v>79.6013094233451</v>
+        <v>80.9885789905908</v>
       </c>
       <c r="AU311" t="inlineStr">
         <is>
@@ -32813,11 +32823,11 @@
       </c>
       <c r="AX311" t="inlineStr">
         <is>
-          <t>Manicaland, Mashonaland Central, Mashonaland East, Masvingo, Matabeleland North, Matabeleland South, Midlands (Adm1).</t>
+          <t>Administrative unit not available (Adm1).</t>
         </is>
       </c>
       <c r="AY311">
-        <v>1954</v>
+        <v>1985</v>
       </c>
       <c r="AZ311">
         <v>2015</v>
@@ -32826,17 +32836,17 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2015-9483-TON</t>
+          <t>2018-9278-AFG</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>9483</t>
+          <t>9278</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -32861,32 +32871,32 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>Tonga</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>AFG</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Polynesia</t>
+          <t>Southern Asia</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>Asia</t>
         </is>
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>Vava'u, Ha'apai, Tongatapu, Niuafo'ou, Niuatoputapu</t>
-        </is>
-      </c>
-      <c r="P312" t="inlineStr">
-        <is>
-          <t>El NIno</t>
+          <t>Badghis, Daykundi, Hirat, Ghor, Daykundi, Badakhshan, Farah, Helmand, Kandahar, Zabul, Nangarhar</t>
+        </is>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>Food shortage</t>
         </is>
       </c>
       <c r="U312" t="inlineStr">
@@ -32900,19 +32910,25 @@
         </is>
       </c>
       <c r="AC312">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="AD312">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AF312">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="AG312">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="AK312">
+        <v>13500000</v>
+      </c>
+      <c r="AM312">
+        <v>13500000</v>
       </c>
       <c r="AT312">
-        <v>80.9885789905908</v>
+        <v>85.8030260572654</v>
       </c>
       <c r="AU312" t="inlineStr">
         <is>
@@ -32921,30 +32937,30 @@
       </c>
       <c r="AX312" t="inlineStr">
         <is>
-          <t>Administrative unit not available (Adm1).</t>
+          <t>Badghis, Daykundi, Farah, Ghor, Hirat, Kandahar, Nangarhar, Zabul (Adm1).</t>
         </is>
       </c>
       <c r="AY312">
-        <v>1985</v>
+        <v>1977</v>
       </c>
       <c r="AZ312">
-        <v>2015</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2018-9278-AFG</t>
+          <t>2016-9452-KEN</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>9278</t>
+          <t>9452</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -32969,27 +32985,32 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>Southern Asia</t>
+          <t>Eastern Africa</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
         <is>
-          <t>Asia</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>Badghis, Daykundi, Hirat, Ghor, Daykundi, Badakhshan, Farah, Helmand, Kandahar, Zabul, Nangarhar</t>
+          <t>Kilifi, Kwale, Tana River, Taita Taveta districts (Coast province), Wajir, Mandera districts (North Eastern province), Marsabit, Makueni, Kitui districts (Eastern province), Samburu district (Rift Valley province), Lamu, Baringo, West Poko, Garissa, Tana river, Isiolo, Laikipia, Turkana, Taita Tavetan Makueni, Narok, Embu (Mbeere), Meru, Tharaka Nithi, Nyeri</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>Poor performance in the long-rain time period</t>
         </is>
       </c>
       <c r="Q313" t="inlineStr">
@@ -33008,57 +33029,62 @@
         </is>
       </c>
       <c r="AC313">
+        <v>2016</v>
+      </c>
+      <c r="AD313">
+        <v>6</v>
+      </c>
+      <c r="AF313">
         <v>2018</v>
       </c>
-      <c r="AD313">
-        <v>4</v>
-      </c>
-      <c r="AF313">
-        <v>2019</v>
-      </c>
       <c r="AG313">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK313">
-        <v>13500000</v>
+        <v>3400000</v>
       </c>
       <c r="AM313">
-        <v>13500000</v>
+        <v>3400000</v>
       </c>
       <c r="AT313">
-        <v>85.8030260572654</v>
+        <v>82.01033090313599</v>
       </c>
       <c r="AU313" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AW313" t="inlineStr">
+        <is>
+          <t>51340;51341;51345;51346;51349;51351;51352;51363;51364;51389</t>
         </is>
       </c>
       <c r="AX313" t="inlineStr">
         <is>
-          <t>Badghis, Daykundi, Farah, Ghor, Hirat, Kandahar, Nangarhar, Zabul (Adm1).</t>
+          <t>Kilifi, Kitui, Kwale, Makueni, Mandera, Marsabit, Samburu, Taita Taveta, Tana River, Wajir (Adm2).</t>
         </is>
       </c>
       <c r="AY313">
-        <v>1977</v>
+        <v>1969</v>
       </c>
       <c r="AZ313">
-        <v>2019</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2016-9452-KEN</t>
+          <t>2017-9468-MDG</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>9452</t>
+          <t>9468</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -33083,12 +33109,12 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
@@ -33103,12 +33129,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>Kilifi, Kwale, Tana River, Taita Taveta districts (Coast province), Wajir, Mandera districts (North Eastern province), Marsabit, Makueni, Kitui districts (Eastern province), Samburu district (Rift Valley province), Lamu, Baringo, West Poko, Garissa, Tana river, Isiolo, Laikipia, Turkana, Taita Tavetan Makueni, Narok, Embu (Mbeere), Meru, Tharaka Nithi, Nyeri</t>
-        </is>
-      </c>
-      <c r="P314" t="inlineStr">
-        <is>
-          <t>Poor performance in the long-rain time period</t>
+          <t>South, South East</t>
         </is>
       </c>
       <c r="Q314" t="inlineStr">
@@ -33116,7 +33137,7 @@
           <t>Food shortage</t>
         </is>
       </c>
-      <c r="U314" t="inlineStr">
+      <c r="S314" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -33127,52 +33148,47 @@
         </is>
       </c>
       <c r="AC314">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="AD314">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AF314">
         <v>2018</v>
       </c>
       <c r="AG314">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AK314">
-        <v>3400000</v>
+        <v>1260000</v>
       </c>
       <c r="AM314">
-        <v>3400000</v>
+        <v>1260000</v>
       </c>
       <c r="AT314">
-        <v>82.01033090313599</v>
+        <v>83.7572545519631</v>
       </c>
       <c r="AU314" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AW314" t="inlineStr">
-        <is>
-          <t>51340;51341;51345;51346;51349;51351;51352;51363;51364;51389</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AX314" t="inlineStr">
         <is>
-          <t>Kilifi, Kitui, Kwale, Makueni, Mandera, Marsabit, Samburu, Taita Taveta, Tana River, Wajir (Adm2).</t>
+          <t>Amoron I Mania, Androy, Anosy, Atsimo Andrefana, Atsimo Atsinanana, Atsinanana, Haute Matsiatra, Ihorombe, Menabe, Vatovavy Fitovinany (Adm1).</t>
         </is>
       </c>
       <c r="AY314">
-        <v>1969</v>
+        <v>1958</v>
       </c>
       <c r="AZ314">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2017-9468-MDG</t>
+          <t>2017-9343-MRT</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -33182,7 +33198,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>9468</t>
+          <t>9343</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -33207,17 +33223,17 @@
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MRT</t>
         </is>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>Eastern Africa</t>
+          <t>Western Africa</t>
         </is>
       </c>
       <c r="N315" t="inlineStr">
@@ -33227,7 +33243,12 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>South, South East</t>
+          <t>Brakna, Gorgol, Guidimakha</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>Lack of rain</t>
         </is>
       </c>
       <c r="Q315" t="inlineStr">
@@ -33249,19 +33270,19 @@
         <v>2017</v>
       </c>
       <c r="AD315">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AF315">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="AG315">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AK315">
-        <v>1260000</v>
+        <v>3893774</v>
       </c>
       <c r="AM315">
-        <v>1260000</v>
+        <v>3893774</v>
       </c>
       <c r="AT315">
         <v>83.7572545519631</v>
@@ -33273,132 +33294,13 @@
       </c>
       <c r="AX315" t="inlineStr">
         <is>
-          <t>Amoron I Mania, Androy, Anosy, Atsimo Andrefana, Atsimo Atsinanana, Atsinanana, Haute Matsiatra, Ihorombe, Menabe, Vatovavy Fitovinany (Adm1).</t>
+          <t>Brakna, Gorgol, Guidimakha (Adm1).</t>
         </is>
       </c>
       <c r="AY315">
-        <v>1958</v>
+        <v>1973</v>
       </c>
       <c r="AZ315">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>2017-9343-MRT</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>9343</t>
-        </is>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>Climatological</t>
-        </is>
-      </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>Drought</t>
-        </is>
-      </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>Drought</t>
-        </is>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>Mauritania</t>
-        </is>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>MRT</t>
-        </is>
-      </c>
-      <c r="M316" t="inlineStr">
-        <is>
-          <t>Western Africa</t>
-        </is>
-      </c>
-      <c r="N316" t="inlineStr">
-        <is>
-          <t>Africa</t>
-        </is>
-      </c>
-      <c r="O316" t="inlineStr">
-        <is>
-          <t>Brakna, Gorgol, Guidimakha</t>
-        </is>
-      </c>
-      <c r="P316" t="inlineStr">
-        <is>
-          <t>Lack of rain</t>
-        </is>
-      </c>
-      <c r="Q316" t="inlineStr">
-        <is>
-          <t>Food shortage</t>
-        </is>
-      </c>
-      <c r="S316" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="X316" t="inlineStr">
-        <is>
-          <t>Km2</t>
-        </is>
-      </c>
-      <c r="AC316">
-        <v>2017</v>
-      </c>
-      <c r="AD316">
-        <v>4</v>
-      </c>
-      <c r="AF316">
-        <v>2017</v>
-      </c>
-      <c r="AG316">
-        <v>8</v>
-      </c>
-      <c r="AK316">
-        <v>3893774</v>
-      </c>
-      <c r="AM316">
-        <v>3893774</v>
-      </c>
-      <c r="AT316">
-        <v>83.7572545519631</v>
-      </c>
-      <c r="AU316" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AX316" t="inlineStr">
-        <is>
-          <t>Brakna, Gorgol, Guidimakha (Adm1).</t>
-        </is>
-      </c>
-      <c r="AY316">
-        <v>1973</v>
-      </c>
-      <c r="AZ316">
         <v>2017</v>
       </c>
     </row>
